--- a/data/trans_orig/IP25A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73FB70FD-7FFB-4129-BA2D-16B21AC9FB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{957818AF-5EA6-4339-96D9-16843E973AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6A74A912-7780-4A9B-BD92-210EC71EBBD9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9C627A4E-6A2B-48DD-948E-05AC727B52C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,268 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Menos de 1 hora</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>De 1 hora a 2 horas</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>De 2 a 3 horas</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>Más de 3 horas</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>De 1 hora a 2 horas</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
   </si>
   <si>
     <t>45,42%</t>
@@ -100,9 +358,6 @@
     <t>49,8%</t>
   </si>
   <si>
-    <t>De 2 a 3 horas</t>
-  </si>
-  <si>
     <t>31,87%</t>
   </si>
   <si>
@@ -130,39 +385,6 @@
     <t>37,89%</t>
   </si>
   <si>
-    <t>Menos de 1 hora</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>Más de 3 horas</t>
-  </si>
-  <si>
     <t>7,29%</t>
   </si>
   <si>
@@ -187,123 +409,141 @@
     <t>4,89%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
     <t>45,76%</t>
   </si>
   <si>
@@ -358,33 +598,6 @@
     <t>35,99%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
     <t>8,52%</t>
   </si>
   <si>
@@ -412,217 +625,28 @@
     <t>11,28%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>47,9%</t>
@@ -679,30 +703,6 @@
     <t>32,18%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
     <t>7,77%</t>
   </si>
   <si>
@@ -733,6 +733,234 @@
     <t>Menores según el número de horas que emprean en ver la televisión / 2007/11/15 en 2012 (Tasa respuesta: 89,71%)</t>
   </si>
   <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
     <t>53,33%</t>
   </si>
   <si>
@@ -787,33 +1015,6 @@
     <t>31,24%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
     <t>9,61%</t>
   </si>
   <si>
@@ -835,109 +1036,130 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>45,11%</t>
@@ -994,30 +1216,6 @@
     <t>33,8%</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
     <t>9,59%</t>
   </si>
   <si>
@@ -1042,202 +1240,31 @@
     <t>12,15%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>50,1%</t>
@@ -1291,33 +1318,6 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
     <t>8,89%</t>
   </si>
   <si>
@@ -1345,6 +1345,216 @@
     <t>Menores según el número de horas que emprean en ver la televisión / 2007/11/15 en 2015 (Tasa respuesta: 89,13%)</t>
   </si>
   <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
     <t>44,11%</t>
   </si>
   <si>
@@ -1393,30 +1603,6 @@
     <t>37,84%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
     <t>5,03%</t>
   </si>
   <si>
@@ -1444,109 +1630,124 @@
     <t>8,16%</t>
   </si>
   <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>37,98%</t>
@@ -1576,9 +1777,6 @@
     <t>43,18%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
     <t>28,42%</t>
   </si>
   <si>
@@ -1603,33 +1801,6 @@
     <t>38,12%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
     <t>15,26%</t>
   </si>
   <si>
@@ -1654,175 +1825,28 @@
     <t>17,62%</t>
   </si>
   <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>42,15%</t>
@@ -1874,30 +1898,6 @@
   </si>
   <si>
     <t>36,35%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
   </si>
   <si>
     <t>10,57%</t>
@@ -2313,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6114DD28-C904-402B-95C9-134CC4008A20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C97E03-E862-41B3-B6EC-16B72C4513AD}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2431,10 +2431,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>83309</v>
+        <v>3607</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2446,10 +2446,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>79625</v>
+        <v>770</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2461,10 +2461,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>162934</v>
+        <v>4376</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2482,10 +2482,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>58459</v>
+        <v>8467</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2497,10 +2497,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>61608</v>
+        <v>13755</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2512,10 +2512,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>120067</v>
+        <v>22223</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2533,10 +2533,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>28266</v>
+        <v>7080</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2548,10 +2548,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>20858</v>
+        <v>7485</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2563,10 +2563,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>49123</v>
+        <v>14565</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2584,10 +2584,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>13378</v>
+        <v>3094</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2599,34 +2599,34 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>10403</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3094</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="7">
-        <v>36</v>
-      </c>
-      <c r="N7" s="7">
-        <v>23781</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,10 +2635,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>183412</v>
+        <v>22248</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -2650,10 +2650,10 @@
         <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>172493</v>
+        <v>22010</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -2665,10 +2665,10 @@
         <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>555</v>
+        <v>57</v>
       </c>
       <c r="N8" s="7">
-        <v>355905</v>
+        <v>44258</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -2688,10 +2688,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>69690</v>
+        <v>15871</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2703,10 +2703,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>57290</v>
+        <v>18616</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2718,10 +2718,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="N9" s="7">
-        <v>126980</v>
+        <v>34487</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2739,10 +2739,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D10" s="7">
-        <v>20656</v>
+        <v>69690</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2754,10 +2754,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="I10" s="7">
-        <v>23279</v>
+        <v>57290</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2769,10 +2769,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="N10" s="7">
-        <v>43935</v>
+        <v>126980</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2790,10 +2790,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>15871</v>
+        <v>20656</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -2805,10 +2805,10 @@
         <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>18616</v>
+        <v>23279</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -2820,10 +2820,10 @@
         <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>34487</v>
+        <v>43935</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -2945,10 +2945,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>82364</v>
+        <v>28266</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2960,10 +2960,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>91540</v>
+        <v>20858</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2975,10 +2975,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="N14" s="7">
-        <v>173905</v>
+        <v>49123</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -2996,10 +2996,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D15" s="7">
-        <v>63050</v>
+        <v>83309</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -3011,10 +3011,10 @@
         <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="I15" s="7">
-        <v>54632</v>
+        <v>79625</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -3026,10 +3026,10 @@
         <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="N15" s="7">
-        <v>117682</v>
+        <v>162934</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -3047,10 +3047,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>19245</v>
+        <v>58459</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -3062,10 +3062,10 @@
         <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I16" s="7">
-        <v>30431</v>
+        <v>61608</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -3077,10 +3077,10 @@
         <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="N16" s="7">
-        <v>49676</v>
+        <v>120067</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -3098,10 +3098,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>15340</v>
+        <v>13378</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -3113,10 +3113,10 @@
         <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>16852</v>
+        <v>10403</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -3128,10 +3128,10 @@
         <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N17" s="7">
-        <v>32192</v>
+        <v>23781</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -3140,7 +3140,7 @@
         <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,10 +3149,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>179999</v>
+        <v>183412</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -3164,10 +3164,10 @@
         <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="I18" s="7">
-        <v>193455</v>
+        <v>172493</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -3179,10 +3179,10 @@
         <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="N18" s="7">
-        <v>373454</v>
+        <v>355905</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -3196,55 +3196,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>8467</v>
+        <v>20780</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>25</v>
+      </c>
+      <c r="I19" s="7">
+        <v>14758</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="7">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13755</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>58</v>
+      </c>
+      <c r="N19" s="7">
+        <v>35539</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="7">
-        <v>29</v>
-      </c>
-      <c r="N19" s="7">
-        <v>22223</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,49 +3253,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D20" s="7">
-        <v>7080</v>
+        <v>58878</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>106</v>
+      </c>
+      <c r="I20" s="7">
+        <v>63043</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>7485</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>198</v>
+      </c>
+      <c r="N20" s="7">
+        <v>121921</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M20" s="7">
-        <v>18</v>
-      </c>
-      <c r="N20" s="7">
-        <v>14565</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,49 +3304,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7">
-        <v>3607</v>
+        <v>43109</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>59</v>
+      </c>
+      <c r="I21" s="7">
+        <v>36511</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>770</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>124</v>
+      </c>
+      <c r="N21" s="7">
+        <v>79620</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M21" s="7">
-        <v>6</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4376</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,49 +3355,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>3094</v>
+        <v>9345</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7994</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>27</v>
+      </c>
+      <c r="N22" s="7">
+        <v>17339</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M22" s="7">
-        <v>4</v>
-      </c>
-      <c r="N22" s="7">
-        <v>3094</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,10 +3406,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="D23" s="7">
-        <v>22248</v>
+        <v>132113</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -3421,10 +3421,10 @@
         <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="I23" s="7">
-        <v>22010</v>
+        <v>122306</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -3436,10 +3436,10 @@
         <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>57</v>
+        <v>407</v>
       </c>
       <c r="N23" s="7">
-        <v>44258</v>
+        <v>254419</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -3453,55 +3453,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7">
-        <v>58878</v>
+        <v>19245</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>40</v>
+      </c>
+      <c r="I24" s="7">
+        <v>30431</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="7">
-        <v>106</v>
-      </c>
-      <c r="I24" s="7">
-        <v>63043</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>69</v>
+      </c>
+      <c r="N24" s="7">
+        <v>49676</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M24" s="7">
-        <v>198</v>
-      </c>
-      <c r="N24" s="7">
-        <v>121921</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,49 +3510,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="D25" s="7">
-        <v>43109</v>
+        <v>82364</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>120</v>
+      </c>
+      <c r="I25" s="7">
+        <v>91540</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="7">
-        <v>59</v>
-      </c>
-      <c r="I25" s="7">
-        <v>36511</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>241</v>
+      </c>
+      <c r="N25" s="7">
+        <v>173905</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M25" s="7">
-        <v>124</v>
-      </c>
-      <c r="N25" s="7">
-        <v>79620</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3561,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D26" s="7">
-        <v>20780</v>
+        <v>63050</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>178</v>
@@ -3576,10 +3576,10 @@
         <v>179</v>
       </c>
       <c r="H26" s="7">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I26" s="7">
-        <v>14758</v>
+        <v>54632</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>180</v>
@@ -3591,10 +3591,10 @@
         <v>182</v>
       </c>
       <c r="M26" s="7">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="N26" s="7">
-        <v>35539</v>
+        <v>117682</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>183</v>
@@ -3612,10 +3612,10 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D27" s="7">
-        <v>9345</v>
+        <v>15340</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>186</v>
@@ -3627,10 +3627,10 @@
         <v>188</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I27" s="7">
-        <v>7994</v>
+        <v>16852</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>189</v>
@@ -3642,10 +3642,10 @@
         <v>191</v>
       </c>
       <c r="M27" s="7">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N27" s="7">
-        <v>17339</v>
+        <v>32192</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>192</v>
@@ -3663,10 +3663,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="D28" s="7">
-        <v>132113</v>
+        <v>179999</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>49</v>
@@ -3678,10 +3678,10 @@
         <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="I28" s="7">
-        <v>122306</v>
+        <v>193455</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>49</v>
@@ -3693,10 +3693,10 @@
         <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>407</v>
+        <v>518</v>
       </c>
       <c r="N28" s="7">
-        <v>254419</v>
+        <v>373454</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -3716,10 +3716,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>456</v>
+        <v>134</v>
       </c>
       <c r="D29" s="7">
-        <v>302709</v>
+        <v>87769</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>195</v>
@@ -3731,10 +3731,10 @@
         <v>197</v>
       </c>
       <c r="H29" s="7">
-        <v>459</v>
+        <v>128</v>
       </c>
       <c r="I29" s="7">
-        <v>305253</v>
+        <v>85432</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>198</v>
@@ -3746,19 +3746,19 @@
         <v>200</v>
       </c>
       <c r="M29" s="7">
-        <v>915</v>
+        <v>262</v>
       </c>
       <c r="N29" s="7">
-        <v>607962</v>
+        <v>173201</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,49 +3767,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>288</v>
+        <v>456</v>
       </c>
       <c r="D30" s="7">
-        <v>192355</v>
+        <v>302709</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>459</v>
+      </c>
+      <c r="I30" s="7">
+        <v>305253</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="7">
-        <v>271</v>
-      </c>
-      <c r="I30" s="7">
-        <v>183514</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>915</v>
+      </c>
+      <c r="N30" s="7">
+        <v>607962</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="M30" s="7">
-        <v>559</v>
-      </c>
-      <c r="N30" s="7">
-        <v>375869</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,43 +3818,43 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="D31" s="7">
-        <v>87769</v>
+        <v>192355</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>271</v>
+      </c>
+      <c r="I31" s="7">
+        <v>183514</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H31" s="7">
-        <v>128</v>
-      </c>
-      <c r="I31" s="7">
-        <v>85432</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>559</v>
+      </c>
+      <c r="N31" s="7">
+        <v>375869</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="M31" s="7">
-        <v>262</v>
-      </c>
-      <c r="N31" s="7">
-        <v>173201</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>219</v>
@@ -3983,7 +3983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DD3D9C-A424-4F37-BAB6-CC0454BFA849}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788E7EF4-054A-47C2-881A-CCDE842A80A4}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4101,49 +4101,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>107063</v>
+        <v>1753</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3739</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H4" s="7">
-        <v>137</v>
-      </c>
-      <c r="I4" s="7">
-        <v>89347</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5492</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M4" s="7">
-        <v>294</v>
-      </c>
-      <c r="N4" s="7">
-        <v>196410</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,49 +4152,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>51731</v>
+        <v>15290</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6972</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H5" s="7">
-        <v>81</v>
-      </c>
-      <c r="I5" s="7">
-        <v>53417</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>25</v>
+      </c>
+      <c r="N5" s="7">
+        <v>22262</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M5" s="7">
-        <v>156</v>
-      </c>
-      <c r="N5" s="7">
-        <v>105148</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,49 +4203,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>22672</v>
+        <v>3806</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7967</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H6" s="7">
-        <v>52</v>
-      </c>
-      <c r="I6" s="7">
-        <v>32725</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>14</v>
+      </c>
+      <c r="N6" s="7">
+        <v>11773</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="M6" s="7">
-        <v>84</v>
-      </c>
-      <c r="N6" s="7">
-        <v>55398</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,49 +4254,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>19301</v>
+        <v>3157</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2845</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H7" s="7">
-        <v>17</v>
-      </c>
-      <c r="I7" s="7">
-        <v>10568</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6002</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="M7" s="7">
-        <v>45</v>
-      </c>
-      <c r="N7" s="7">
-        <v>29868</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,10 +4305,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>200767</v>
+        <v>24006</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -4320,10 +4320,10 @@
         <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>186057</v>
+        <v>21523</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -4335,10 +4335,10 @@
         <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>579</v>
+        <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>386824</v>
+        <v>45529</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -4358,49 +4358,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7">
-        <v>55393</v>
+        <v>18036</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>29</v>
+      </c>
+      <c r="I9" s="7">
+        <v>20320</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50844</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>55</v>
+      </c>
+      <c r="N9" s="7">
+        <v>38356</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M9" s="7">
-        <v>146</v>
-      </c>
-      <c r="N9" s="7">
-        <v>106236</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,49 +4409,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D10" s="7">
-        <v>34238</v>
+        <v>55393</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>69</v>
+      </c>
+      <c r="I10" s="7">
+        <v>50844</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H10" s="7">
-        <v>44</v>
-      </c>
-      <c r="I10" s="7">
-        <v>30791</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>146</v>
+      </c>
+      <c r="N10" s="7">
+        <v>106236</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M10" s="7">
-        <v>93</v>
-      </c>
-      <c r="N10" s="7">
-        <v>65028</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,10 +4460,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>18036</v>
+        <v>34238</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>282</v>
@@ -4475,10 +4475,10 @@
         <v>284</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>20320</v>
+        <v>30791</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>285</v>
@@ -4490,10 +4490,10 @@
         <v>287</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="N11" s="7">
-        <v>38356</v>
+        <v>65028</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>288</v>
@@ -4502,7 +4502,7 @@
         <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4517,13 @@
         <v>9446</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4532,13 +4532,13 @@
         <v>4895</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -4547,13 +4547,13 @@
         <v>14341</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,49 +4615,49 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>86546</v>
+        <v>22672</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>52</v>
+      </c>
+      <c r="I14" s="7">
+        <v>32725</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H14" s="7">
-        <v>115</v>
-      </c>
-      <c r="I14" s="7">
-        <v>86622</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>84</v>
+      </c>
+      <c r="N14" s="7">
+        <v>55398</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="M14" s="7">
-        <v>234</v>
-      </c>
-      <c r="N14" s="7">
-        <v>173168</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,49 +4666,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D15" s="7">
-        <v>56248</v>
+        <v>107063</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>137</v>
+      </c>
+      <c r="I15" s="7">
+        <v>89347</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H15" s="7">
-        <v>70</v>
-      </c>
-      <c r="I15" s="7">
-        <v>55850</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>294</v>
+      </c>
+      <c r="N15" s="7">
+        <v>196410</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="M15" s="7">
-        <v>146</v>
-      </c>
-      <c r="N15" s="7">
-        <v>112098</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,49 +4717,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7">
-        <v>30683</v>
+        <v>51731</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>81</v>
+      </c>
+      <c r="I16" s="7">
+        <v>53417</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H16" s="7">
-        <v>36</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26979</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>156</v>
+      </c>
+      <c r="N16" s="7">
+        <v>105148</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="M16" s="7">
-        <v>77</v>
-      </c>
-      <c r="N16" s="7">
-        <v>57662</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,49 +4768,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>18396</v>
+        <v>19301</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>17</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10568</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="H17" s="7">
-        <v>21</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16795</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
       </c>
       <c r="N17" s="7">
-        <v>35191</v>
+        <v>29868</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,10 +4819,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="D18" s="7">
-        <v>191873</v>
+        <v>200767</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -4834,10 +4834,10 @@
         <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="I18" s="7">
-        <v>186246</v>
+        <v>186057</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -4849,10 +4849,10 @@
         <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>502</v>
+        <v>579</v>
       </c>
       <c r="N18" s="7">
-        <v>378119</v>
+        <v>386824</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -4866,55 +4866,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>15290</v>
+        <v>19437</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>32</v>
+      </c>
+      <c r="I19" s="7">
+        <v>20353</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6972</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>60</v>
+      </c>
+      <c r="N19" s="7">
+        <v>39790</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="M19" s="7">
-        <v>25</v>
-      </c>
-      <c r="N19" s="7">
-        <v>22262</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,49 +4923,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D20" s="7">
-        <v>3806</v>
+        <v>77938</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>108</v>
+      </c>
+      <c r="I20" s="7">
+        <v>69705</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>7967</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>231</v>
+      </c>
+      <c r="N20" s="7">
+        <v>147643</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="M20" s="7">
-        <v>14</v>
-      </c>
-      <c r="N20" s="7">
-        <v>11773</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,49 +4974,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D21" s="7">
-        <v>1753</v>
+        <v>41508</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>147</v>
+        <v>351</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="I21" s="7">
-        <v>3739</v>
+        <v>28354</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M21" s="7">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="N21" s="7">
-        <v>5492</v>
+        <v>69862</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,40 +5025,40 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>3157</v>
+        <v>10400</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>2845</v>
+        <v>12916</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>362</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="N22" s="7">
-        <v>6002</v>
+        <v>23316</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>363</v>
@@ -5076,10 +5076,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="D23" s="7">
-        <v>24006</v>
+        <v>149283</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -5091,10 +5091,10 @@
         <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="I23" s="7">
-        <v>21523</v>
+        <v>131328</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -5106,10 +5106,10 @@
         <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>51</v>
+        <v>436</v>
       </c>
       <c r="N23" s="7">
-        <v>45529</v>
+        <v>280611</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -5123,16 +5123,16 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7">
-        <v>77938</v>
+        <v>30683</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>366</v>
@@ -5144,10 +5144,10 @@
         <v>368</v>
       </c>
       <c r="H24" s="7">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="I24" s="7">
-        <v>69705</v>
+        <v>26979</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>369</v>
@@ -5159,19 +5159,19 @@
         <v>371</v>
       </c>
       <c r="M24" s="7">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="N24" s="7">
-        <v>147643</v>
+        <v>57662</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>372</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,49 +5180,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="D25" s="7">
-        <v>41508</v>
+        <v>86546</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>115</v>
+      </c>
+      <c r="I25" s="7">
+        <v>86622</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H25" s="7">
-        <v>45</v>
-      </c>
-      <c r="I25" s="7">
-        <v>28354</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>234</v>
+      </c>
+      <c r="N25" s="7">
+        <v>173168</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="M25" s="7">
-        <v>108</v>
-      </c>
-      <c r="N25" s="7">
-        <v>69862</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,49 +5231,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D26" s="7">
-        <v>19437</v>
+        <v>56248</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>70</v>
+      </c>
+      <c r="I26" s="7">
+        <v>55850</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="H26" s="7">
-        <v>32</v>
-      </c>
-      <c r="I26" s="7">
-        <v>20353</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>146</v>
+      </c>
+      <c r="N26" s="7">
+        <v>112098</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="M26" s="7">
-        <v>60</v>
-      </c>
-      <c r="N26" s="7">
-        <v>39790</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5282,13 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D27" s="7">
-        <v>10400</v>
+        <v>18396</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>393</v>
@@ -5297,25 +5297,25 @@
         <v>394</v>
       </c>
       <c r="H27" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27" s="7">
-        <v>12916</v>
+        <v>16795</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>395</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="M27" s="7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N27" s="7">
-        <v>23316</v>
+        <v>35191</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>397</v>
@@ -5333,10 +5333,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="D28" s="7">
-        <v>149283</v>
+        <v>191873</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>49</v>
@@ -5348,10 +5348,10 @@
         <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="I28" s="7">
-        <v>131328</v>
+        <v>186246</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>49</v>
@@ -5363,10 +5363,10 @@
         <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="N28" s="7">
-        <v>280611</v>
+        <v>378119</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -5386,10 +5386,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>492</v>
+        <v>129</v>
       </c>
       <c r="D29" s="7">
-        <v>342231</v>
+        <v>92582</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>400</v>
@@ -5401,34 +5401,34 @@
         <v>402</v>
       </c>
       <c r="H29" s="7">
-        <v>438</v>
+        <v>153</v>
       </c>
       <c r="I29" s="7">
-        <v>303489</v>
+        <v>104116</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>234</v>
+        <v>403</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M29" s="7">
-        <v>930</v>
+        <v>282</v>
       </c>
       <c r="N29" s="7">
-        <v>645720</v>
+        <v>196698</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,28 +5437,28 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>268</v>
+        <v>492</v>
       </c>
       <c r="D30" s="7">
-        <v>187530</v>
+        <v>342231</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H30" s="7">
-        <v>249</v>
+        <v>438</v>
       </c>
       <c r="I30" s="7">
-        <v>176379</v>
+        <v>303489</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>411</v>
+        <v>310</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>412</v>
@@ -5467,10 +5467,10 @@
         <v>413</v>
       </c>
       <c r="M30" s="7">
-        <v>517</v>
+        <v>930</v>
       </c>
       <c r="N30" s="7">
-        <v>363909</v>
+        <v>645720</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>414</v>
@@ -5488,10 +5488,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="D31" s="7">
-        <v>92582</v>
+        <v>187530</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>417</v>
@@ -5503,10 +5503,10 @@
         <v>419</v>
       </c>
       <c r="H31" s="7">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="I31" s="7">
-        <v>104116</v>
+        <v>176379</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>420</v>
@@ -5518,10 +5518,10 @@
         <v>422</v>
       </c>
       <c r="M31" s="7">
-        <v>282</v>
+        <v>517</v>
       </c>
       <c r="N31" s="7">
-        <v>196698</v>
+        <v>363909</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>423</v>
@@ -5551,7 +5551,7 @@
         <v>427</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="H32" s="7">
         <v>68</v>
@@ -5653,7 +5653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA8F7F4-24F7-44B0-8871-BEB216D7B86D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDEEC3F-5E64-4977-ACFD-A8F04AA371B3}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5771,10 +5771,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>90032</v>
+        <v>2488</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>435</v>
@@ -5786,34 +5786,34 @@
         <v>437</v>
       </c>
       <c r="H4" s="7">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>76839</v>
+        <v>2177</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4665</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="M4" s="7">
-        <v>254</v>
-      </c>
-      <c r="N4" s="7">
-        <v>166871</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,49 +5822,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>73638</v>
+        <v>7393</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8039</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="H5" s="7">
-        <v>96</v>
-      </c>
-      <c r="I5" s="7">
-        <v>58873</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>18</v>
+      </c>
+      <c r="N5" s="7">
+        <v>15433</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M5" s="7">
-        <v>204</v>
-      </c>
-      <c r="N5" s="7">
-        <v>132511</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>449</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>450</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,49 +5873,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>30171</v>
+        <v>12087</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8651</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H6" s="7">
-        <v>57</v>
-      </c>
-      <c r="I6" s="7">
-        <v>35850</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>23</v>
+      </c>
+      <c r="N6" s="7">
+        <v>20738</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="M6" s="7">
-        <v>102</v>
-      </c>
-      <c r="N6" s="7">
-        <v>66021</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,49 +5924,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>754</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7">
-        <v>10268</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1016</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1770</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="H7" s="7">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7">
-        <v>13788</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="M7" s="7">
-        <v>37</v>
-      </c>
-      <c r="N7" s="7">
-        <v>24056</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>467</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>204109</v>
+        <v>22723</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -5990,10 +5990,10 @@
         <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7">
-        <v>185350</v>
+        <v>19883</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -6005,10 +6005,10 @@
         <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>597</v>
+        <v>48</v>
       </c>
       <c r="N8" s="7">
-        <v>389459</v>
+        <v>42606</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -6028,49 +6028,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>40511</v>
+        <v>14697</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H9" s="7">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7">
+        <v>14598</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="M9" s="7">
+        <v>43</v>
+      </c>
+      <c r="N9" s="7">
+        <v>29295</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="H9" s="7">
-        <v>50</v>
-      </c>
-      <c r="I9" s="7">
-        <v>34787</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="M9" s="7">
-        <v>104</v>
-      </c>
-      <c r="N9" s="7">
-        <v>75298</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,49 +6079,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>41070</v>
+        <v>40511</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H10" s="7">
+        <v>50</v>
+      </c>
+      <c r="I10" s="7">
+        <v>34787</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="M10" s="7">
+        <v>104</v>
+      </c>
+      <c r="N10" s="7">
+        <v>75298</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H10" s="7">
-        <v>56</v>
-      </c>
-      <c r="I10" s="7">
-        <v>38298</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="M10" s="7">
-        <v>111</v>
-      </c>
-      <c r="N10" s="7">
-        <v>79368</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,49 +6130,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>14697</v>
+        <v>41070</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>293</v>
+        <v>479</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H11" s="7">
+        <v>56</v>
+      </c>
+      <c r="I11" s="7">
+        <v>38298</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="M11" s="7">
+        <v>111</v>
+      </c>
+      <c r="N11" s="7">
+        <v>79368</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="H11" s="7">
-        <v>22</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14598</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="M11" s="7">
-        <v>43</v>
-      </c>
-      <c r="N11" s="7">
-        <v>29295</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6187,13 @@
         <v>15641</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -6202,13 +6202,13 @@
         <v>9738</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M12" s="7">
         <v>35</v>
@@ -6217,13 +6217,13 @@
         <v>25379</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,49 +6285,49 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>68268</v>
+        <v>30171</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="H14" s="7">
+        <v>57</v>
+      </c>
+      <c r="I14" s="7">
+        <v>35850</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="M14" s="7">
+        <v>102</v>
+      </c>
+      <c r="N14" s="7">
+        <v>66021</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="H14" s="7">
-        <v>95</v>
-      </c>
-      <c r="I14" s="7">
-        <v>70491</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="M14" s="7">
-        <v>190</v>
-      </c>
-      <c r="N14" s="7">
-        <v>138759</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,49 +6336,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D15" s="7">
-        <v>61452</v>
+        <v>90032</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" s="7">
+        <v>121</v>
+      </c>
+      <c r="I15" s="7">
+        <v>76839</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M15" s="7">
+        <v>254</v>
+      </c>
+      <c r="N15" s="7">
+        <v>166871</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="H15" s="7">
-        <v>80</v>
-      </c>
-      <c r="I15" s="7">
-        <v>59206</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="M15" s="7">
-        <v>167</v>
-      </c>
-      <c r="N15" s="7">
-        <v>120657</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,49 +6387,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7">
-        <v>22580</v>
+        <v>73638</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="I16" s="7">
-        <v>23761</v>
+        <v>58873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>526</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="N16" s="7">
-        <v>46341</v>
+        <v>132511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,49 +6438,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>27424</v>
+        <v>10268</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>23283</v>
+        <v>13788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>526</v>
       </c>
       <c r="M17" s="7">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>50707</v>
+        <v>24056</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,10 +6489,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="D18" s="7">
-        <v>179724</v>
+        <v>204109</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -6504,10 +6504,10 @@
         <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="I18" s="7">
-        <v>176741</v>
+        <v>185350</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -6519,10 +6519,10 @@
         <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>490</v>
+        <v>597</v>
       </c>
       <c r="N18" s="7">
-        <v>356464</v>
+        <v>389459</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -6536,55 +6536,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>7393</v>
+        <v>13545</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H19" s="7">
+        <v>23</v>
+      </c>
+      <c r="I19" s="7">
+        <v>13912</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M19" s="7">
+        <v>45</v>
+      </c>
+      <c r="N19" s="7">
+        <v>27457</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8039</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="M19" s="7">
-        <v>18</v>
-      </c>
-      <c r="N19" s="7">
-        <v>15433</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,49 +6593,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="D20" s="7">
-        <v>12087</v>
+        <v>78308</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H20" s="7">
+        <v>108</v>
+      </c>
+      <c r="I20" s="7">
+        <v>62883</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="M20" s="7">
+        <v>224</v>
+      </c>
+      <c r="N20" s="7">
+        <v>141192</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8651</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="M20" s="7">
-        <v>23</v>
-      </c>
-      <c r="N20" s="7">
-        <v>20738</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,49 +6644,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D21" s="7">
-        <v>2488</v>
+        <v>47455</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>555</v>
+        <v>513</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="I21" s="7">
-        <v>2177</v>
+        <v>43331</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>550</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="M21" s="7">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="N21" s="7">
-        <v>4665</v>
+        <v>90786</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>557</v>
+        <v>269</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,49 +6695,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>754</v>
+        <v>17272</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="H22" s="7">
+        <v>34</v>
+      </c>
+      <c r="I22" s="7">
+        <v>22851</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="M22" s="7">
+        <v>58</v>
+      </c>
+      <c r="N22" s="7">
+        <v>40123</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1016</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="M22" s="7">
-        <v>2</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1770</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,10 +6746,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="D23" s="7">
-        <v>22723</v>
+        <v>156581</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -6761,10 +6761,10 @@
         <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="I23" s="7">
-        <v>19883</v>
+        <v>142977</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -6776,10 +6776,10 @@
         <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>48</v>
+        <v>467</v>
       </c>
       <c r="N23" s="7">
-        <v>42606</v>
+        <v>299558</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -6793,55 +6793,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D24" s="7">
-        <v>78308</v>
+        <v>22580</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="H24" s="7">
+        <v>33</v>
+      </c>
+      <c r="I24" s="7">
+        <v>23761</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="H24" s="7">
-        <v>108</v>
-      </c>
-      <c r="I24" s="7">
-        <v>62883</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>65</v>
+      </c>
+      <c r="N24" s="7">
+        <v>46341</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="M24" s="7">
-        <v>224</v>
-      </c>
-      <c r="N24" s="7">
-        <v>141192</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,49 +6850,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D25" s="7">
-        <v>47455</v>
+        <v>68268</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>572</v>
       </c>
       <c r="H25" s="7">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="I25" s="7">
-        <v>43331</v>
+        <v>70491</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>573</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>190</v>
+      </c>
+      <c r="N25" s="7">
+        <v>138759</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="M25" s="7">
-        <v>140</v>
-      </c>
-      <c r="N25" s="7">
-        <v>90786</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>573</v>
-      </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>577</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6901,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D26" s="7">
-        <v>13545</v>
+        <v>61452</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>578</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>579</v>
@@ -6916,10 +6916,10 @@
         <v>580</v>
       </c>
       <c r="H26" s="7">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I26" s="7">
-        <v>13912</v>
+        <v>59206</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>581</v>
@@ -6931,10 +6931,10 @@
         <v>583</v>
       </c>
       <c r="M26" s="7">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="N26" s="7">
-        <v>27457</v>
+        <v>120657</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>584</v>
@@ -6952,10 +6952,10 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D27" s="7">
-        <v>17272</v>
+        <v>27424</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>587</v>
@@ -6967,25 +6967,25 @@
         <v>589</v>
       </c>
       <c r="H27" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I27" s="7">
-        <v>22851</v>
+        <v>23283</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>590</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>178</v>
+        <v>591</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>591</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N27" s="7">
-        <v>40123</v>
+        <v>50707</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>592</v>
@@ -7003,10 +7003,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="D28" s="7">
-        <v>156581</v>
+        <v>179724</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>49</v>
@@ -7018,10 +7018,10 @@
         <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I28" s="7">
-        <v>142977</v>
+        <v>176741</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>49</v>
@@ -7033,10 +7033,10 @@
         <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="N28" s="7">
-        <v>299558</v>
+        <v>356464</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -7056,10 +7056,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>407</v>
+        <v>123</v>
       </c>
       <c r="D29" s="7">
-        <v>284512</v>
+        <v>83481</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>595</v>
@@ -7071,10 +7071,10 @@
         <v>597</v>
       </c>
       <c r="H29" s="7">
-        <v>383</v>
+        <v>137</v>
       </c>
       <c r="I29" s="7">
-        <v>253039</v>
+        <v>90298</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>598</v>
@@ -7086,16 +7086,16 @@
         <v>600</v>
       </c>
       <c r="M29" s="7">
-        <v>790</v>
+        <v>260</v>
       </c>
       <c r="N29" s="7">
-        <v>537552</v>
+        <v>173779</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>602</v>
@@ -7107,10 +7107,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="D30" s="7">
-        <v>235703</v>
+        <v>284512</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>603</v>
@@ -7122,10 +7122,10 @@
         <v>605</v>
       </c>
       <c r="H30" s="7">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="I30" s="7">
-        <v>208359</v>
+        <v>253039</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>606</v>
@@ -7137,19 +7137,19 @@
         <v>608</v>
       </c>
       <c r="M30" s="7">
-        <v>645</v>
+        <v>790</v>
       </c>
       <c r="N30" s="7">
-        <v>444061</v>
+        <v>537552</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>609</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,43 +7158,43 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="D31" s="7">
-        <v>83481</v>
+        <v>235703</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>311</v>
+      </c>
+      <c r="I31" s="7">
+        <v>208359</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="H31" s="7">
-        <v>137</v>
-      </c>
-      <c r="I31" s="7">
-        <v>90298</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>645</v>
+      </c>
+      <c r="N31" s="7">
+        <v>444061</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="M31" s="7">
-        <v>260</v>
-      </c>
-      <c r="N31" s="7">
-        <v>173779</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>618</v>
@@ -7245,7 +7245,7 @@
         <v>142036</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>553</v>
+        <v>435</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>626</v>
